--- a/data/trans_orig/CONS_ANT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANT-Clase-trans_orig.xlsx
@@ -7741,97 +7741,97 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>9,99%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>1166</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7854,12 +7854,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8242</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -7889,12 +7889,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>10292</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -7904,12 +7904,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>90,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -7924,12 +7924,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>19616</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_ANT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANT-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en País Vasco</t>
+          <t>Consumo de medicamentos antibióticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en Andalucia</t>
+          <t>Consumo de medicamentos antibióticos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en C.Valenciana</t>
+          <t>Consumo de medicamentos antibióticos en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_ANT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANT-Clase-trans_orig.xlsx
@@ -735,67 +735,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>379</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>1196</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2661</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>0,35%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,07%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1218</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>493</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2495</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,85%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>779</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3279</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -848,69 +848,69 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>145293</t>
+          <t>162422</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>144312</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>145702</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>99,77%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>99,27%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>99,95%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>167224</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>165906</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>167983</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>99,2%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>98,42%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
           <t>99,65%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>98,97%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>99,93%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>870</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>141673</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>140396</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>142398</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>99,15%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>98,25%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>99,66%</t>
-        </is>
-      </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>1722</t>
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>286966</t>
+          <t>329646</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>285422</t>
+          <t>328277</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>287776</t>
+          <t>330589</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>99,07%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>99,76%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>779</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>2320</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>969</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>324</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>2424</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,22 +1148,22 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>1747</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>721</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2659</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>80386</t>
+          <t>89646</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79299</t>
+          <t>88105</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80908</t>
+          <t>90214</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>99,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>108519</t>
+          <t>121699</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>107790</t>
+          <t>120244</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>108924</t>
+          <t>122344</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>99,74%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,27 +1261,27 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>188905</t>
+          <t>211346</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>187630</t>
+          <t>209929</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>189645</t>
+          <t>212372</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>450</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>748</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>223</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>890</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3457</t>
+          <t>3958</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>162843</t>
+          <t>152690</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>161257</t>
+          <t>150887</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>163551</t>
+          <t>153434</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62469</t>
+          <t>60869</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61347</t>
+          <t>59306</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>62967</t>
+          <t>61394</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>225312</t>
+          <t>213559</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>223544</t>
+          <t>211543</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>226263</t>
+          <t>214611</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>99,59%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>629</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3109</t>
+          <t>2712</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>2072</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>3883</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2316</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>6270</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,55%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>168486</t>
+          <t>168377</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>166980</t>
+          <t>167007</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>169402</t>
+          <t>169090</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>174903</t>
+          <t>180118</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>172618</t>
+          <t>178425</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>176116</t>
+          <t>181113</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>343388</t>
+          <t>348495</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>341001</t>
+          <t>346445</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>344955</t>
+          <t>349885</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>99,42%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>347</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2194</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2068</t>
+          <t>2362</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>1287</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3720</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>3165</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1790</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>5345</t>
+          <t>5461</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75754</t>
+          <t>73434</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74411</t>
+          <t>72257</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>76498</t>
+          <t>74104</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>130864</t>
+          <t>123054</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>129212</t>
+          <t>121111</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>131936</t>
+          <t>124129</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>98,97%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>206618</t>
+          <t>196488</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>204438</t>
+          <t>194406</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>207993</t>
+          <t>197884</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>99,01%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>578</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>960</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>356</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1841</t>
+          <t>2173</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>746</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44600</t>
+          <t>55025</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43344</t>
+          <t>53974</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45155</t>
+          <t>55469</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,77%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>117540</t>
+          <t>121641</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>116436</t>
+          <t>120428</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>118012</t>
+          <t>122245</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>162140</t>
+          <t>176667</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>160586</t>
+          <t>175185</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>162892</t>
+          <t>177458</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,58%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5288</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8362</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>7578</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>5240</t>
+          <t>6301</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>10205</t>
+          <t>11431</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>13255</t>
+          <t>13741</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>10496</t>
+          <t>10639</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>17255</t>
+          <t>17337</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>677362</t>
+          <t>701595</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>674677</t>
+          <t>699105</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>679345</t>
+          <t>703381</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>735966</t>
+          <t>774606</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>733339</t>
+          <t>771628</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>738304</t>
+          <t>776758</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>98,98%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1413328</t>
+          <t>1476200</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1409328</t>
+          <t>1472604</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1416087</t>
+          <t>1479302</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,29%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10462</t>
+          <t>10699</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5932</t>
+          <t>5910</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18252</t>
+          <t>18884</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>9866</t>
+          <t>9167</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>24032</t>
+          <t>25035</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,76%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>356221</t>
+          <t>355984</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>364859</t>
+          <t>364795</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,49%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>280649</t>
+          <t>280017</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>292969</t>
+          <t>292991</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>641552</t>
+          <t>640549</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>655718</t>
+          <t>656417</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,62%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11191</t>
+          <t>10393</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2185</t>
+          <t>2155</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10940</t>
+          <t>10341</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5532</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>17941</t>
+          <t>18400</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,15%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>312856</t>
+          <t>313654</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>322017</t>
+          <t>322047</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>249141</t>
+          <t>249740</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>257896</t>
+          <t>257926</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>566187</t>
+          <t>565728</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>578596</t>
+          <t>578248</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>98,99%</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1388</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24298</t>
+          <t>25615</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2249</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9479</t>
+          <t>9432</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3263</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>31134</t>
+          <t>30280</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,28%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>451126</t>
+          <t>449809</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>473533</t>
+          <t>474036</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>88085</t>
+          <t>88132</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>95315</t>
+          <t>95256</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>541854</t>
+          <t>542708</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>569725</t>
+          <t>569733</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6667</t>
+          <t>7213</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23309</t>
+          <t>22118</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3735</t>
+          <t>3579</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20870</t>
+          <t>20875</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>12981</t>
+          <t>13337</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>36235</t>
+          <t>37004</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,16%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>512846</t>
+          <t>514037</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>529488</t>
+          <t>528942</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>98,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>615438</t>
+          <t>615433</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>632573</t>
+          <t>632729</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>99,44%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1136227</t>
+          <t>1135458</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1159481</t>
+          <t>1159125</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>98,86%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11199</t>
+          <t>10133</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>13258</t>
+          <t>12658</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>44333</t>
+          <t>41937</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>17409</t>
+          <t>17226</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>48109</t>
+          <t>46365</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,31%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>199533</t>
+          <t>200599</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>208951</t>
+          <t>209171</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>379616</t>
+          <t>382012</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>410691</t>
+          <t>411291</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>90,11%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>586572</t>
+          <t>588316</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>617272</t>
+          <t>617455</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>97,29%</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20769</t>
+          <t>17023</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10426</t>
+          <t>10748</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>24351</t>
+          <t>24621</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>13838</t>
+          <t>13947</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>35610</t>
+          <t>36014</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>145992</t>
+          <t>149738</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>465617</t>
+          <t>465347</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>479542</t>
+          <t>479220</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>621119</t>
+          <t>620715</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>642891</t>
+          <t>642782</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>97,88%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26484</t>
+          <t>26459</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>59966</t>
+          <t>59976</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>51290</t>
+          <t>51144</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>94224</t>
+          <t>94444</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>89980</t>
+          <t>90172</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>142129</t>
+          <t>143806</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,35%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2019836</t>
+          <t>2019826</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2053318</t>
+          <t>2053343</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2112547</t>
+          <t>2112327</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2155481</t>
+          <t>2155627</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4144444</t>
+          <t>4142767</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4196593</t>
+          <t>4196401</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_ANT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANT-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos antibióticos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>4817</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>1811</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>10090</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1343</t>
+          <t>11672</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>6724</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2661</t>
+          <t>20578</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>16489</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>9912</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3091</t>
+          <t>26345</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>3,64%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>162422</t>
+          <t>390570</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>385297</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>393576</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,77%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,95%</t>
+          <t>99,54%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>167224</t>
+          <t>315954</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>165906</t>
+          <t>307048</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>167983</t>
+          <t>320902</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>834</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>329646</t>
+          <t>706524</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>328277</t>
+          <t>696668</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>330589</t>
+          <t>713101</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>98,63%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>5267</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2320</t>
+          <t>10654</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>5446</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>2207</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2424</t>
+          <t>10481</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1747</t>
+          <t>10712</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>5972</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>3164</t>
+          <t>18555</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,94%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89646</t>
+          <t>339080</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88105</t>
+          <t>333693</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>90214</t>
+          <t>342326</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,77%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>386</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>121699</t>
+          <t>281494</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>120244</t>
+          <t>276459</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>122344</t>
+          <t>284733</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>714</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>211346</t>
+          <t>620575</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>209929</t>
+          <t>612732</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>212372</t>
+          <t>625315</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,05%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>9404</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2997</t>
+          <t>17128</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>5453</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>2588</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2311</t>
+          <t>10178</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>14857</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>8781</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3958</t>
+          <t>24309</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>6,53%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>152690</t>
+          <t>251152</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>150887</t>
+          <t>243428</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>153434</t>
+          <t>256190</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>98,32%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60869</t>
+          <t>106033</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59306</t>
+          <t>101308</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>61394</t>
+          <t>108898</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>97,68%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>408</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>213559</t>
+          <t>357186</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>211543</t>
+          <t>347734</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>214611</t>
+          <t>363262</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>93,47%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>97,64%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>15844</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>8970</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2712</t>
+          <t>27424</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2072</t>
+          <t>15177</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>9787</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>23610</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>3414</t>
+          <t>31021</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>20695</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>43096</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>549</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>168377</t>
+          <t>594138</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>167007</t>
+          <t>582558</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>169090</t>
+          <t>601012</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>648</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>180118</t>
+          <t>474645</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>178425</t>
+          <t>466212</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>181113</t>
+          <t>480035</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>348495</t>
+          <t>1068782</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>346445</t>
+          <t>1056707</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>349885</t>
+          <t>1079108</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>98,12%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>669</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>1684</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2194</t>
+          <t>10831</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2362</t>
+          <t>24376</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>18042</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4305</t>
+          <t>34314</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>3379</t>
+          <t>29187</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>20692</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>5461</t>
+          <t>40648</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73434</t>
+          <t>248035</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>72257</t>
+          <t>242015</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74104</t>
+          <t>251162</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>552</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>123054</t>
+          <t>383643</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>121111</t>
+          <t>373705</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>124129</t>
+          <t>389977</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>196488</t>
+          <t>631679</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>194406</t>
+          <t>620218</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>197884</t>
+          <t>640174</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>93,85%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>96,87%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>816</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>17649</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>20211</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>13643</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2173</t>
+          <t>29412</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>25777</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>17122</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>41078</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>55025</t>
+          <t>163931</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53974</t>
+          <t>151848</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55469</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>121641</t>
+          <t>526663</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>120428</t>
+          <t>517462</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>122245</t>
+          <t>533231</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>747</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>176667</t>
+          <t>690594</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>175185</t>
+          <t>675293</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>177458</t>
+          <t>699249</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>97,61%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5288</t>
+          <t>45709</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>31842</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>62917</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8453</t>
+          <t>82334</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>6301</t>
+          <t>68380</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>11431</t>
+          <t>100182</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>151</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>13741</t>
+          <t>128043</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>10639</t>
+          <t>109586</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>17337</t>
+          <t>152432</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>3,63%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3964</t>
+          <t>1825</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>701595</t>
+          <t>1986906</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>699105</t>
+          <t>1969698</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>703381</t>
+          <t>2000773</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>98,43%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4350</t>
+          <t>2853</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>774606</t>
+          <t>2088434</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>771628</t>
+          <t>2070586</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>776758</t>
+          <t>2102388</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>95,38%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>8314</t>
+          <t>4678</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1476200</t>
+          <t>4075340</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1472604</t>
+          <t>4050951</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1479302</t>
+          <t>4093797</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>97,39%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2963</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4829</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos antibióticos en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3378,102 +3378,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5033</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>899</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10699</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10534</t>
+          <t>4928</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5910</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18884</t>
+          <t>9764</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>15567</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>9167</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>25035</t>
+          <t>12255</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>511</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>361650</t>
+          <t>293420</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>355984</t>
+          <t>291137</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>364795</t>
+          <t>294624</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>462</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>288367</t>
+          <t>271772</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>280017</t>
+          <t>266936</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>292991</t>
+          <t>274490</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>973</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>650017</t>
+          <t>565192</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>640549</t>
+          <t>559967</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>656417</t>
+          <t>568499</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>99,35%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3721,32 +3721,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5213</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10393</t>
+          <t>6729</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3756,32 +3756,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5326</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2155</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10341</t>
+          <t>9011</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3791,32 +3791,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10539</t>
+          <t>7574</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>18400</t>
+          <t>12813</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>318834</t>
+          <t>192492</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>313654</t>
+          <t>189043</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>322047</t>
+          <t>194548</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>98,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>387</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>254755</t>
+          <t>227685</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>249740</t>
+          <t>222968</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>257926</t>
+          <t>230329</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>728</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>573589</t>
+          <t>420176</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>565728</t>
+          <t>414937</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>578248</t>
+          <t>424025</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>99,13%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,72 +4059,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9408</t>
+          <t>5669</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>2830</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25615</t>
+          <t>11912</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5016</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>1829</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9432</t>
+          <t>10316</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4134,32 +4134,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>14424</t>
+          <t>10005</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3255</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>30280</t>
+          <t>16908</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>337</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>466016</t>
+          <t>175202</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>449809</t>
+          <t>168959</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>474036</t>
+          <t>178041</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>93,41%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92548</t>
+          <t>78464</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>88132</t>
+          <t>72484</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>95256</t>
+          <t>80971</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>487</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>558564</t>
+          <t>253667</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>542708</t>
+          <t>246764</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>569733</t>
+          <t>257689</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>97,73%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,107 +4402,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12788</t>
+          <t>5931</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7213</t>
+          <t>2766</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22118</t>
+          <t>11010</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11555</t>
+          <t>10437</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3579</t>
+          <t>6188</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20875</t>
+          <t>16410</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>24343</t>
+          <t>16368</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>13337</t>
+          <t>10925</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>37004</t>
+          <t>23859</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>569</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>523367</t>
+          <t>302502</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>514037</t>
+          <t>297423</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>528942</t>
+          <t>305667</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>537</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>624753</t>
+          <t>305526</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>615433</t>
+          <t>299553</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>632729</t>
+          <t>309775</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,44%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1148119</t>
+          <t>608028</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1135458</t>
+          <t>600537</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1159125</t>
+          <t>613471</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,25%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4535</t>
+          <t>2663</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>960</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10133</t>
+          <t>6612</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24122</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12658</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>41937</t>
+          <t>7739</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>28657</t>
+          <t>6592</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>17226</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>46365</t>
+          <t>11494</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>3,76%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>254</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>206197</t>
+          <t>147622</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>200599</t>
+          <t>143673</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>209171</t>
+          <t>149325</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>260</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>399827</t>
+          <t>151139</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>382012</t>
+          <t>147329</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>411291</t>
+          <t>153554</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,11%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>514</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>606024</t>
+          <t>298762</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>588316</t>
+          <t>293860</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>617455</t>
+          <t>301925</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>98,88%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5558</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>17023</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>10,21%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>16151</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>10748</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>24621</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>21709</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>13947</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>36014</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>161203</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>149738</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11434</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>671</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>473817</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>465347</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>479220</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>96,7%</t>
-        </is>
-      </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>635020</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>620715</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>642782</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>42536</t>
+          <t>19645</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26459</t>
+          <t>13956</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>59976</t>
+          <t>27926</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>72704</t>
+          <t>27924</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>51144</t>
+          <t>20091</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>94444</t>
+          <t>37946</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>115240</t>
+          <t>47568</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>90172</t>
+          <t>38095</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>143806</t>
+          <t>60225</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2037266</t>
+          <t>1120586</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2019826</t>
+          <t>1112305</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2053343</t>
+          <t>1126275</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>98,28%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2853</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2134067</t>
+          <t>1046021</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2112327</t>
+          <t>1035999</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2155627</t>
+          <t>1053854</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4678</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4171333</t>
+          <t>2166608</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4142767</t>
+          <t>2153951</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4196401</t>
+          <t>2176081</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>98,28%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos antibióticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>379</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4386</t>
+          <t>1196</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4928</t>
+          <t>1343</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2210</t>
+          <t>584</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9764</t>
+          <t>2661</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>7030</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3723</t>
+          <t>779</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>12255</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>852</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>293420</t>
+          <t>162422</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>291137</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>294624</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>99,77%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>99,95%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>870</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>271772</t>
+          <t>167224</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>266936</t>
+          <t>165906</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>274490</t>
+          <t>167983</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>565192</t>
+          <t>329646</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>559967</t>
+          <t>328277</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>568499</t>
+          <t>330589</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>99,07%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,35%</t>
+          <t>99,76%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>779</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6729</t>
+          <t>2320</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>969</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>324</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9011</t>
+          <t>2424</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>7574</t>
+          <t>1747</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3725</t>
+          <t>721</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>12813</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>490</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>192492</t>
+          <t>89646</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>189043</t>
+          <t>88105</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>194548</t>
+          <t>90214</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>668</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>227685</t>
+          <t>121699</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>222968</t>
+          <t>120244</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>230329</t>
+          <t>122344</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>99,74%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>1158</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>420176</t>
+          <t>211346</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>414937</t>
+          <t>209929</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>424025</t>
+          <t>212372</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>99,66%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2997</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2311</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5669</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2830</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11912</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,13%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,59%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>1829</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>10316</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>5,24%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>12,46%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>10005</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>890</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16908</t>
+          <t>3958</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>917</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>175202</t>
+          <t>152690</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>168959</t>
+          <t>150887</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>178041</t>
+          <t>153434</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>363</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78464</t>
+          <t>60869</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>72484</t>
+          <t>59306</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80971</t>
+          <t>61394</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>1280</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>253667</t>
+          <t>213559</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>246764</t>
+          <t>211543</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>257689</t>
+          <t>214611</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>99,59%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5931</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2766</t>
+          <t>629</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11010</t>
+          <t>2712</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10437</t>
+          <t>2072</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6188</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16410</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>16368</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10925</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>23859</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>1,55%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>995</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>302502</t>
+          <t>168377</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>297423</t>
+          <t>167007</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>305667</t>
+          <t>169090</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>1028</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>305526</t>
+          <t>180118</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>299553</t>
+          <t>178425</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>309775</t>
+          <t>181113</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>608028</t>
+          <t>348495</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>600537</t>
+          <t>346445</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>613471</t>
+          <t>349885</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>99,42%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7393,102 +7393,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2663</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>347</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6612</t>
+          <t>2194</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>2362</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1287</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7739</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>6592</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3429</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>11494</t>
+          <t>5461</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>445</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>147622</t>
+          <t>73434</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>143673</t>
+          <t>72257</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>149325</t>
+          <t>74104</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>734</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>151139</t>
+          <t>123054</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>147329</t>
+          <t>121111</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>153554</t>
+          <t>124129</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>98,97%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>298762</t>
+          <t>196488</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>293860</t>
+          <t>194406</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>301925</t>
+          <t>197884</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>99,01%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>578</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>960</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>356</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2173</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>746</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55025</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>53974</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>55469</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>687</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>121641</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>120428</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>122245</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>952</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>176667</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>175185</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>177458</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,58%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,37 +8074,37 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>19645</t>
+          <t>5288</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13956</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27926</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -8114,67 +8114,67 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27924</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>20091</t>
+          <t>6301</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>37946</t>
+          <t>11431</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>47568</t>
+          <t>13741</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>38095</t>
+          <t>10639</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>60225</t>
+          <t>17337</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>3964</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1120586</t>
+          <t>701595</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1112305</t>
+          <t>699105</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1126275</t>
+          <t>703381</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1046021</t>
+          <t>774606</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1035999</t>
+          <t>771628</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1053854</t>
+          <t>776758</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3841</t>
+          <t>8314</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2166608</t>
+          <t>1476200</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2153951</t>
+          <t>1472604</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2176081</t>
+          <t>1479302</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>99,29%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
